--- a/account_ordering.xlsx
+++ b/account_ordering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carmen\_Portfolio\Anomaly_TSLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22E33C6-BD12-496C-9120-B367AABA3825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5AA49-0997-4D06-9E6A-0A1BC92F0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{1AE4FDC2-0EB3-4BC6-BC0B-97B43DD4FE6A}"/>
   </bookViews>
@@ -44,9 +44,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="186">
   <si>
-    <t>Attribute</t>
-  </si>
-  <si>
     <t>Tax Effect Of Unusual Items</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -992,711 +992,711 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF55E55-9EAC-4723-9097-B3E15CD55195}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1719,15 +1719,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>17</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>0</v>
